--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2454096.346595264</v>
+        <v>2588966.508333383</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916864</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4875305.665149344</v>
+        <v>5143781.480774226</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.5023837795942</v>
+        <v>82.62438707186482</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12.47826366483695</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>96.73279781746936</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>317.8227870144767</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>222.6309997171397</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>126.8934802385063</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1114,13 +1116,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>108.7428291903012</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,19 +1141,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>413.8248991439523</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1306,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>20.73696989209223</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>172.5055694905844</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1378,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>65.98721618935198</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1534,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>134.9254647561326</v>
+        <v>195.1399239737168</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>175.2350820564344</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>166.2501299602862</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1850,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>2.292363805516904</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2147,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633441</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>98.98021706930123</v>
       </c>
       <c r="I22" t="n">
-        <v>85.55329631630661</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2479,13 +2481,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2.292363805516792</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>141.3509401177972</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2716,10 +2718,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>54.18430635300722</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2852,7 +2854,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>149.0061926078293</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>108.5103196251633</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3247,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3427,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>24.62703520776627</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3515,13 +3517,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3667,16 +3669,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>94.21878984361635</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>94.43123673215203</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3752,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>394.0491968986746</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3791,16 +3793,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3907,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.49360828359006</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647609</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>50.28454703777634</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.64119670414971</v>
+        <v>189.9004325318029</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>114.4749582105863</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1351.260616875875</v>
+        <v>846.6470431118091</v>
       </c>
       <c r="C2" t="n">
-        <v>922.6789426131436</v>
+        <v>812.5449743356364</v>
       </c>
       <c r="D2" t="n">
-        <v>890.8095618279922</v>
+        <v>780.675593550485</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>949.4537989923044</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>934.3517396120192</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>930.1060199520766</v>
       </c>
     </row>
     <row r="3">
@@ -4404,22 +4406,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428.0970671107308</v>
+        <v>561.4080158629581</v>
       </c>
       <c r="C4" t="n">
-        <v>428.0970671107308</v>
+        <v>388.846304346183</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,19 +4494,19 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N4" t="n">
-        <v>1233.544589050298</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O4" t="n">
-        <v>1653.213838276079</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4522,16 +4524,16 @@
         <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>1172.934896876919</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W4" t="n">
-        <v>900.9084924632101</v>
+        <v>998.6183892485328</v>
       </c>
       <c r="X4" t="n">
-        <v>655.5167377966226</v>
+        <v>753.2266345819453</v>
       </c>
       <c r="Y4" t="n">
-        <v>428.0970671107308</v>
+        <v>753.2266345819453</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.640221925911</v>
+        <v>863.5525504725381</v>
       </c>
       <c r="C5" t="n">
-        <v>408.5381531497384</v>
+        <v>829.4504816963654</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>393.5406968708098</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>363.806356069509</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="J5" t="n">
-        <v>267.8706684926505</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346894</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2076.672304652814</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1714.05535458664</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1309.199899997674</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>890.0574365769844</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>885.8117169170418</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993472</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970915</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.603617826933</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>122.603617826933</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>266.2978593068814</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>684.5077410748424</v>
       </c>
       <c r="M7" t="n">
-        <v>1146.964903885608</v>
+        <v>1143.991608255755</v>
       </c>
       <c r="N7" t="n">
-        <v>1349.676536110076</v>
+        <v>1586.2504114134</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2005.919660639182</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477224</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.080693055679</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1816.647692308784</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1529.692184179215</v>
       </c>
       <c r="W7" t="n">
-        <v>595.4150431794122</v>
+        <v>1257.665779765506</v>
       </c>
       <c r="X7" t="n">
-        <v>350.0232885128247</v>
+        <v>1257.665779765506</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.603617826933</v>
+        <v>1257.665779765506</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>978.7890572316419</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>944.6869884554692</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>857.0776321906106</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>857.0776321906106</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>857.0776321906106</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1409.334347376492</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>1001.048223676146</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.5617128800624</v>
+        <v>1013.503637065321</v>
       </c>
       <c r="C10" t="n">
-        <v>546.0000013632873</v>
+        <v>840.941925548546</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>675.0639327500687</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>505.305929000806</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>328.5988749625621</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>163.0075999883898</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>958.7861344791625</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1522.935380089928</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1522.935380089928</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1235.979871960358</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>963.9534675466499</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X10" t="n">
-        <v>718.5617128800624</v>
+        <v>1432.7419264702</v>
       </c>
       <c r="Y10" t="n">
-        <v>718.5617128800624</v>
+        <v>1205.322255784308</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1306.390568510015</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>868.2480956934382</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>432.3383108678827</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>432.3383108678827</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>432.3383108678827</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>486.3646795840096</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1320.714971542188</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1320.714971542188</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>1320.714971542188</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3586.813433454082</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3327.591130771099</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2964.974180704925</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2560.118726115958</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2140.976262695269</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1732.690138994923</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>1107.493131408668</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.493131408668</v>
+        <v>566.7757676570886</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.493131408668</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.493131408668</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.493131408668</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1107.493131408668</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.195773823502</v>
+        <v>871.6588228237728</v>
       </c>
       <c r="C13" t="n">
-        <v>982.6340623067273</v>
+        <v>699.0971113069977</v>
       </c>
       <c r="D13" t="n">
-        <v>816.75606950825</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E13" t="n">
-        <v>646.9980657589872</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>470.2910117207434</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>304.699736746571</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2151.388059752355</v>
+        <v>2095.270779438517</v>
       </c>
       <c r="V13" t="n">
-        <v>1864.432551622785</v>
+        <v>1808.315271308948</v>
       </c>
       <c r="W13" t="n">
-        <v>1592.406147209077</v>
+        <v>1536.288866895239</v>
       </c>
       <c r="X13" t="n">
-        <v>1347.01439254249</v>
+        <v>1290.897112228652</v>
       </c>
       <c r="Y13" t="n">
-        <v>1347.01439254249</v>
+        <v>1063.47744154276</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1526.457795636976</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1088.3153228204</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1088.3153228204</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>654.5405779786947</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1336.971486530523</v>
       </c>
       <c r="L14" t="n">
-        <v>2262.917935035995</v>
+        <v>2412.031452783383</v>
       </c>
       <c r="M14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3547.65835789806</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3185.041407831886</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2780.18595324292</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.043489822231</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1952.757366121884</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1368.962574832099</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1368.962574832099</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1368.962574832099</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.195773823502</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>982.6340623067273</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>816.75606950825</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>646.9980657589872</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>470.2910117207434</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>304.699736746571</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2692.797223114421</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.917776692876</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2378.807730438247</v>
+        <v>2124.452389553093</v>
       </c>
       <c r="V16" t="n">
-        <v>2091.852222308677</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W16" t="n">
-        <v>1819.825817894969</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X16" t="n">
-        <v>1574.434063228381</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y16" t="n">
-        <v>1347.01439254249</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="17">
@@ -5498,43 +5500,43 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5595,22 +5597,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1039.550377927473</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2114.610344180332</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>3271.658179390883</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>405.0384966383147</v>
+        <v>634.526213836947</v>
       </c>
       <c r="O21" t="n">
-        <v>405.0384966383147</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1039.174348374283</v>
+        <v>1141.396843814754</v>
       </c>
       <c r="C22" t="n">
-        <v>866.6126368575082</v>
+        <v>968.8351322979789</v>
       </c>
       <c r="D22" t="n">
-        <v>700.7346440590309</v>
+        <v>802.9571394995016</v>
       </c>
       <c r="E22" t="n">
-        <v>530.9766403097681</v>
+        <v>633.1991357502388</v>
       </c>
       <c r="F22" t="n">
-        <v>354.2695862715243</v>
+        <v>456.4920817119951</v>
       </c>
       <c r="G22" t="n">
-        <v>188.678311297352</v>
+        <v>290.9008067378227</v>
       </c>
       <c r="H22" t="n">
-        <v>188.678311297352</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y22" t="n">
-        <v>1230.99296709327</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="23">
@@ -5981,46 +5983,46 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.16863798718</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>4986.778077699538</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
         <v>4187.483659846699</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>3475.865925220629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>3475.865925220629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>3475.865925220629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>3879.214741978674</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D25" t="n">
-        <v>639.1929661716164</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>639.1929661716164</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
         <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="26">
@@ -6212,64 +6214,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>3800.424250186843</v>
+        <v>634.526213836947</v>
       </c>
       <c r="O27" t="n">
-        <v>3800.424250186843</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>639.1929661716164</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6449,64 +6451,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6539,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.781058858859</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>754.2193473420839</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1863.437507344034</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1591.411102930325</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1346.019348263738</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1118.599677577846</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N32" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6780,25 +6782,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>153.0458362120693</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1062.363260807472</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>889.8015492906967</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>723.9235564922194</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>554.1655527429566</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>377.4584987047128</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>211.8672237305405</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W34" t="n">
-        <v>1726.993304878938</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X34" t="n">
-        <v>1481.601550212351</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1254.181879526459</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6928,7 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,31 +6937,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6974,7 +6976,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K36" t="n">
-        <v>3800.424250186843</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L36" t="n">
-        <v>3800.424250186843</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M36" t="n">
-        <v>3800.424250186843</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N36" t="n">
-        <v>3800.424250186843</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O36" t="n">
-        <v>3800.424250186843</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>3575.440564248062</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>3402.878852731287</v>
       </c>
       <c r="D37" t="n">
-        <v>639.1929661716164</v>
+        <v>3237.00085993281</v>
       </c>
       <c r="E37" t="n">
-        <v>469.4349624223536</v>
+        <v>3067.242856183547</v>
       </c>
       <c r="F37" t="n">
-        <v>292.7279083841098</v>
+        <v>2890.535802145303</v>
       </c>
       <c r="G37" t="n">
-        <v>127.1366334099375</v>
+        <v>2724.944527171131</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861506</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>3994.678853652941</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258798</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F40" t="n">
-        <v>286.091284287636</v>
+        <v>451.897152078511</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>286.3058771043387</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2210.278326475953</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1772.135853659377</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1336.226068833821</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>902.4513239921162</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>474.5838944013239</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
-        <v>76.55440258448085</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L41" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M41" t="n">
-        <v>2262.917935035995</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N41" t="n">
-        <v>2262.917935035995</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3464.006484081897</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3464.006484081897</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3464.006484081897</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3044.864020661208</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2636.577896960861</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L42" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M42" t="n">
-        <v>426.7596113382908</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>889.8287705599338</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>717.2670590431587</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>551.3890662446814</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>381.6310624954187</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>381.6310624954187</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>216.0397875212464</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2637.753174343118</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2391.873727921573</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2113.440727174678</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1826.485219045109</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1554.4588146314</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1309.067059964813</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1081.647389278921</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L44" t="n">
-        <v>1345.742592622717</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M44" t="n">
-        <v>2287.945556116525</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N44" t="n">
-        <v>2287.945556116525</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O44" t="n">
-        <v>2287.945556116525</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.255430949921</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3662.754216908516</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3806.880660581043</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3756.088188825714</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3336.945725405024</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2928.659601704678</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2649.812644093528</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>2543.35618293017</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>2448.265894076723</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>2354.145479403677</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>2270.761641019838</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>2185.376551286022</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>2143.640899102235</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>2169.704572262693</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>2494.262897228905</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K45" t="n">
-        <v>3148.968943854628</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>3148.968943854628</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>3148.968943854628</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>3148.968943854628</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>3148.968943854628</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>3148.968943854628</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>3689.707882486704</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>3806.880660581043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>3743.425223029426</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>3613.246579360028</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>3436.910032359996</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>3237.792514421996</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>3052.46976015519</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>2897.60232439407</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>2771.116545173291</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>893.9741130814026</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C46" t="n">
-        <v>893.9741130814026</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>728.0961202829253</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>558.3381165336625</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>381.6310624954187</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>216.0397875212464</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.287899114408</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1450.2614947007</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.869740034112</v>
+        <v>1339.335629545446</v>
       </c>
       <c r="Y46" t="n">
-        <v>977.4500693482205</v>
+        <v>1111.915958859554</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8140,22 +8142,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>296.9562613211783</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>44.41372909529082</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8222,19 +8224,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>624.8248713018638</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,16 +8297,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045987015</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>204.7592244691589</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,19 +8464,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8613,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>152.0558298092335</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>414.370774113524</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8696,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,13 +8929,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>807.531271522046</v>
       </c>
       <c r="L14" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9009,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.8000219838295</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>46.07100690393293</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>507.1059092967429</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9413,16 +9415,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>183.4781570095934</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9653,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>127.53932913075</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9723,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>407.4230472303484</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
         <v>1246.290173293239</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9887,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>986.1859873202727</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>407.423047230348</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10346,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O32" t="n">
-        <v>575.2670899541636</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10370,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,28 +10430,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>51.29797569827242</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525797</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>806.0025231116373</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10838,7 +10840,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>282.6337518573318</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>164.427348413367</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>926.4397398113929</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11133,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,10 +11147,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N42" t="n">
-        <v>661.3192390158827</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>951.720165145261</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>145.5822663358863</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23264,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>331.3966368736168</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>140.7232059832932</v>
+        <v>80.50874676570888</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>248.35367323845</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>109.3985407791395</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.8531101735159</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>39.52293549722799</v>
       </c>
       <c r="I22" t="n">
-        <v>2.220053416764799</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>33.58904338006417</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>113.8761173587629</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>135.0797604404445</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>29.99283294136596</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>113.876117358763</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>69.71657238081426</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>44.07191583437719</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.334656164294131</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>103.1553467313932</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
     </row>
     <row r="44">
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5223530053007</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.2592358276475</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>128.4628789093354</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>426639.076299211</v>
+        <v>435093.9579147279</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>426639.076299211</v>
+        <v>436616.2779453449</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>362952.563747511</v>
+        <v>448898.6808218544</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362952.5637475111</v>
+        <v>448898.6808218543</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448898.6808218544</v>
+        <v>448898.6808218543</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448898.6808218544</v>
+        <v>448898.6808218543</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362952.563747511</v>
+        <v>448898.6808218543</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362952.563747511</v>
+        <v>448898.6808218543</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536147.3198904082</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="C2" t="n">
         <v>536147.3198904083</v>
       </c>
       <c r="D2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="E2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="F2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="G2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="H2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="I2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="J2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="K2" t="n">
-        <v>526857.5841373521</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="L2" t="n">
-        <v>526857.5841373521</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="M2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="N2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="O2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="P2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373521</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501628</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998266</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877264</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622227</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>193696.6796511645</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154981.0317940153</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>44115.42103448478</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="F4" t="n">
-        <v>44115.42103448478</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
+        <v>54561.82510962271</v>
+      </c>
+      <c r="H4" t="n">
+        <v>54561.82510962272</v>
+      </c>
+      <c r="I4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="J4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54561.82510962276</v>
-      </c>
-      <c r="J4" t="n">
-        <v>54561.8251096227</v>
-      </c>
-      <c r="K4" t="n">
-        <v>54561.82510962271</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962275</v>
@@ -26451,13 +26453,13 @@
         <v>54561.82510962277</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="O4" t="n">
-        <v>44115.42103448479</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>44115.42103448478</v>
+        <v>54561.82510962267</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26488,7 +26490,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140834.5514423114</v>
+        <v>140834.5514423116</v>
       </c>
       <c r="C6" t="n">
-        <v>283025.8521020215</v>
+        <v>242622.3063933741</v>
       </c>
       <c r="D6" t="n">
-        <v>283025.8521020216</v>
+        <v>302397.0055328788</v>
       </c>
       <c r="E6" t="n">
-        <v>166528.1576666044</v>
+        <v>212222.4112008871</v>
       </c>
       <c r="F6" t="n">
-        <v>324005.4525887083</v>
+        <v>394577.5204219369</v>
       </c>
       <c r="G6" t="n">
-        <v>305077.7118155679</v>
+        <v>394577.520421937</v>
       </c>
       <c r="H6" t="n">
         <v>394577.520421937</v>
       </c>
       <c r="I6" t="n">
-        <v>394577.520421937</v>
+        <v>394577.5204219369</v>
       </c>
       <c r="J6" t="n">
         <v>283563.0550769467</v>
       </c>
       <c r="K6" t="n">
-        <v>394577.5204219368</v>
+        <v>341531.6657831643</v>
       </c>
       <c r="L6" t="n">
-        <v>394577.5204219368</v>
+        <v>385185.2186953147</v>
       </c>
       <c r="M6" t="n">
-        <v>263141.2732645174</v>
+        <v>242377.3494839493</v>
       </c>
       <c r="N6" t="n">
-        <v>394577.520421937</v>
+        <v>394577.5204219369</v>
       </c>
       <c r="O6" t="n">
-        <v>324005.4525887083</v>
+        <v>394577.5204219369</v>
       </c>
       <c r="P6" t="n">
-        <v>324005.4525887083</v>
+        <v>394577.5204219369</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939305</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939305</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939305</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.53419100046449</v>
+        <v>339.4121877081939</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>151.7409492056556</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,7 +27596,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>187.3531552308045</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>33.9990799390136</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>63.00695229329094</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>160.5633111792702</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,19 +27861,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1.12613964253012</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>117.766182674437</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>70.91508246674485</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29272,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-9.604209407957034e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29572,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34860,22 +34862,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>296.9562613211783</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>44.41372909529082</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>624.8248713018638</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,16 +35017,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045987015</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>204.7592244691589</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,19 +35184,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>152.0558298092335</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>414.370774113524</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,13 +35649,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>807.531271522046</v>
       </c>
       <c r="L14" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.8000219838295</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>46.07100690393293</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>507.1059092967429</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36133,16 +36135,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>183.4781570095934</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36373,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>127.53932913075</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>407.4230472303484</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
         <v>1246.290173293239</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>986.1859873202727</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>407.423047230348</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O32" t="n">
-        <v>575.2670899541636</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37090,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>51.29797569827242</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525797</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>806.0025231116373</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>282.6337518573318</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>164.427348413367</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>926.4397398113929</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N42" t="n">
-        <v>661.3192390158827</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>951.720165145261</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>145.5822663358863</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2588966.508333383</v>
+        <v>2588441.325964349</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216495</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916864</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82.62438707186482</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>417.1408770807835</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.47826366483695</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>278.0947220735902</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>222.6309997171397</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.8934802385063</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>117.459488961352</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>64.3245838912588</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>413.8248991439523</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>20.73696989209223</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1353,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1423,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>195.1399239737168</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1821,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>166.2501299602862</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>222.6988144892033</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.292363805516904</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2140,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633441</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>98.98021706930123</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>2.292363805516792</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="29">
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>18.05677735225751</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>101.7706336613758</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3283,10 +3283,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313376</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.8153550780013</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="36">
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.383853062969</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791317748</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.8153550780013</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3568,10 +3568,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="39">
@@ -3669,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H40" t="n">
-        <v>94.43123673215203</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3757,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313376</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="42">
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3963,10 +3963,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805495042</v>
       </c>
       <c r="Y43" t="n">
-        <v>104.6990987647609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4039,7 +4039,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325318029</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>98.731207065898</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>114.4749582105863</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6470431118091</v>
+        <v>542.9615250231907</v>
       </c>
       <c r="C2" t="n">
-        <v>812.5449743356364</v>
+        <v>508.859456247018</v>
       </c>
       <c r="D2" t="n">
-        <v>780.675593550485</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>750.9412527491843</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4333,25 +4333,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4360,22 +4360,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1354.309253581271</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>949.4537989923044</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X2" t="n">
-        <v>934.3517396120192</v>
+        <v>973.506815168041</v>
       </c>
       <c r="Y2" t="n">
-        <v>930.1060199520766</v>
+        <v>565.2206914676945</v>
       </c>
     </row>
     <row r="3">
@@ -4406,22 +4406,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>561.4080158629581</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>388.846304346183</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>376.2419976140245</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4488,25 +4488,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4521,19 +4521,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>998.6183892485328</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>753.2266345819453</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>753.2266345819453</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.5525504725381</v>
+        <v>416.7668933966106</v>
       </c>
       <c r="C5" t="n">
-        <v>829.4504816963654</v>
+        <v>135.8631337263175</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5406968708098</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>363.806356069509</v>
+        <v>74.25941213986536</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233711</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>485.687074042395</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="L5" t="n">
-        <v>485.687074042395</v>
+        <v>557.7649106726467</v>
       </c>
       <c r="M5" t="n">
-        <v>1109.787858087174</v>
+        <v>557.7649106726467</v>
       </c>
       <c r="N5" t="n">
-        <v>1109.787858087174</v>
+        <v>557.7649106726467</v>
       </c>
       <c r="O5" t="n">
-        <v>1733.888642131953</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="P5" t="n">
-        <v>2352.465264720799</v>
+        <v>1805.966478762206</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720799</v>
+        <v>2352.465264720801</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473855</v>
+        <v>2437.967455657695</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.552102346894</v>
+        <v>2437.967455657695</v>
       </c>
       <c r="U5" t="n">
-        <v>2076.672304652814</v>
+        <v>2437.967455657695</v>
       </c>
       <c r="V5" t="n">
-        <v>1714.05535458664</v>
+        <v>2075.350505591521</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.199899997674</v>
+        <v>1670.495051002554</v>
       </c>
       <c r="X5" t="n">
-        <v>890.0574365769844</v>
+        <v>1251.352587581865</v>
       </c>
       <c r="Y5" t="n">
-        <v>885.8117169170418</v>
+        <v>843.0664638815184</v>
       </c>
     </row>
     <row r="6">
@@ -4637,25 +4637,25 @@
         <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326464</v>
+        <v>92.16803877326468</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993472</v>
+        <v>76.49605974993476</v>
       </c>
       <c r="J6" t="n">
-        <v>401.054384716147</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>401.054384716147</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>401.054384716147</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>431.6596472970915</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
         <v>1055.760431341871</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201359</v>
+        <v>900.9284236664084</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845835</v>
+        <v>728.3667121496334</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>562.4887193511561</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>392.7307156018933</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>216.0236615636495</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068814</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748424</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255755</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.2504114134</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639182</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609523</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179227</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477224</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055679</v>
+        <v>2402.973381028048</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308784</v>
+        <v>2124.540380281153</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179215</v>
+        <v>1837.584872151583</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765506</v>
+        <v>1565.558467737875</v>
       </c>
       <c r="X7" t="n">
-        <v>1257.665779765506</v>
+        <v>1320.166713071287</v>
       </c>
       <c r="Y7" t="n">
-        <v>1257.665779765506</v>
+        <v>1092.747042385396</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>978.7890572316419</v>
+        <v>1819.558022317326</v>
       </c>
       <c r="C8" t="n">
-        <v>944.6869884554692</v>
+        <v>1381.415549500749</v>
       </c>
       <c r="D8" t="n">
-        <v>912.8176076703178</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>479.0428628286129</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,25 +4807,25 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>687.540662806093</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1828.15434655531</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1827.339296006747</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1409.334347376492</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y8" t="n">
-        <v>1001.048223676146</v>
+        <v>2245.857592802234</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1013.503637065321</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>840.941925548546</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>675.0639327500687</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>505.305929000806</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>328.5988749625621</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>163.0075999883898</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1678.133681136788</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1432.7419264702</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1205.322255784308</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5047,28 +5047,28 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
         <v>4809.322912595856</v>
@@ -5080,13 +5080,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>566.7757676570886</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>871.6588228237728</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>699.0971113069977</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>533.2191185085204</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2095.270779438517</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1808.315271308948</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1536.288866895239</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1290.897112228652</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1063.47744154276</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5281,16 +5281,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1336.971486530523</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2412.031452783383</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3569.079287993933</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
         <v>3569.079287993933</v>
@@ -5363,16 +5363,16 @@
         <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2124.452389553093</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.496881423524</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W16" t="n">
-        <v>1565.470477009816</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X16" t="n">
-        <v>1320.078722343228</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y16" t="n">
-        <v>1092.659051657336</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5506,7 +5506,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5521,46 +5521,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.441008084184</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>842.8792965674086</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1207.259626803171</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5755,46 +5755,46 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1039.550377927473</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2114.610344180332</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3271.658179390883</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136696</v>
@@ -5834,22 +5834,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.396843814754</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>968.8351322979789</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>802.9571394995016</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>633.1991357502388</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>456.4920817119951</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>290.9008067378227</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4986.778077699538</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1017.756527079655</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>845.1948155628801</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1209.575145798642</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>537.5155277236975</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>1694.563362934248</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2820.294346370695</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,28 +6302,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6542,28 +6542,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6645,7 +6645,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
         <v>2700.681281130895</v>
@@ -6706,10 +6706,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6919,34 +6919,34 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6976,10 +6976,10 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3575.440564248062</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>3402.878852731287</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>3237.00085993281</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>3067.242856183547</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>2890.535802145303</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>2724.944527171131</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>2585.042352861506</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>5077.485521609701</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>4799.052520862807</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>4512.097012733238</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>4240.070608319529</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>3994.678853652941</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>3767.25918296705</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004237</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.67762964364</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>451.897152078511</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>451.897152078511</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
-        <v>286.3058771043387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7414,16 +7414,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
         <v>3569.079287993933</v>
@@ -7450,7 +7450,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
@@ -7487,31 +7487,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7590,31 +7590,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878943</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.966900465234</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7648,28 +7648,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>1612.575493976557</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="M44" t="n">
-        <v>2769.623329187108</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N44" t="n">
-        <v>3895.354312623555</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O44" t="n">
-        <v>4397.38916282733</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
@@ -7681,16 +7681,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136696</v>
@@ -7727,7 +7727,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
         <v>1107.588885023173</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>920.0973401405612</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>607.2585098297291</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>430.5514557914853</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X46" t="n">
-        <v>1339.335629545446</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.915958859554</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8136,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>296.9562613211783</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8221,22 +8221,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.8058955861128</v>
       </c>
       <c r="M5" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368464</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="P5" t="n">
-        <v>624.8248713018638</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8297,16 +8297,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741799</v>
       </c>
       <c r="M6" t="n">
-        <v>30.91440664741867</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>630.4048323684639</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045987015</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238416</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>200.8936957823703</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>807.531271522046</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9011,19 +9011,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>60.59188538505214</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>46.07100690393293</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9403,22 +9403,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>507.1059092967429</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>183.4781570095934</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>127.53932913075</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9889,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>986.1859873202727</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10834,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>282.6337518573318</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>164.427348413367</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11311,16 +11311,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>507.1059092967421</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.5463146682411</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>80.50874676570888</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>109.3985407791395</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>2.446659489829472</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>39.52293549722799</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="29">
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H40" t="n">
-        <v>44.07191583437719</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>161.9268490649712</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.4463752142719</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.2041551585326</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>128.4628789093354</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448898.6808218544</v>
+        <v>448898.6808218543</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448898.6808218544</v>
+        <v>448898.6808218543</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448898.6808218544</v>
+        <v>448898.6808218543</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448898.6808218543</v>
+        <v>448898.6808218544</v>
       </c>
     </row>
     <row r="16">
@@ -26325,7 +26325,7 @@
         <v>526857.5841373522</v>
       </c>
       <c r="F2" t="n">
-        <v>526857.5841373522</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="G2" t="n">
         <v>526857.5841373522</v>
@@ -26340,22 +26340,22 @@
         <v>526857.5841373522</v>
       </c>
       <c r="K2" t="n">
-        <v>526857.5841373522</v>
+        <v>526857.5841373521</v>
       </c>
       <c r="L2" t="n">
-        <v>526857.5841373522</v>
+        <v>526857.5841373521</v>
       </c>
       <c r="M2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="N2" t="n">
-        <v>526857.5841373522</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="O2" t="n">
-        <v>526857.5841373522</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="P2" t="n">
-        <v>526857.5841373521</v>
+        <v>526857.5841373523</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501628</v>
+        <v>66587.76789501643</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998266</v>
+        <v>11527.59554998251</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877264</v>
+        <v>53045.85463877273</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622227</v>
+        <v>9392.301726622105</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511645</v>
+        <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
         <v>154981.0317940153</v>
       </c>
       <c r="D4" t="n">
-        <v>148010.1942457892</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962271</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962272</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="J4" t="n">
         <v>54561.82510962275</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="L4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="K4" t="n">
-        <v>54561.82510962276</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>54561.8251096228</v>
+      </c>
+      <c r="N4" t="n">
+        <v>54561.8251096228</v>
+      </c>
+      <c r="O4" t="n">
+        <v>54561.82510962286</v>
+      </c>
+      <c r="P4" t="n">
         <v>54561.82510962275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>54561.82510962277</v>
-      </c>
-      <c r="N4" t="n">
-        <v>54561.82510962275</v>
-      </c>
-      <c r="O4" t="n">
-        <v>54561.82510962276</v>
-      </c>
-      <c r="P4" t="n">
-        <v>54561.82510962267</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800259</v>
+        <v>71956.21380800263</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26524,46 +26524,46 @@
         <v>140834.5514423116</v>
       </c>
       <c r="C6" t="n">
-        <v>242622.3063933741</v>
+        <v>242622.306393374</v>
       </c>
       <c r="D6" t="n">
-        <v>302397.0055328788</v>
+        <v>302397.005532879</v>
       </c>
       <c r="E6" t="n">
-        <v>212222.4112008871</v>
+        <v>212199.1868615045</v>
       </c>
       <c r="F6" t="n">
-        <v>394577.5204219369</v>
+        <v>394554.2960825543</v>
       </c>
       <c r="G6" t="n">
-        <v>394577.520421937</v>
+        <v>394554.2960825542</v>
       </c>
       <c r="H6" t="n">
-        <v>394577.520421937</v>
+        <v>394554.2960825542</v>
       </c>
       <c r="I6" t="n">
-        <v>394577.5204219369</v>
+        <v>394554.2960825542</v>
       </c>
       <c r="J6" t="n">
-        <v>283563.0550769467</v>
+        <v>283539.8307375641</v>
       </c>
       <c r="K6" t="n">
-        <v>341531.6657831643</v>
+        <v>341508.4414437814</v>
       </c>
       <c r="L6" t="n">
-        <v>385185.2186953147</v>
+        <v>385161.9943559321</v>
       </c>
       <c r="M6" t="n">
-        <v>242377.3494839493</v>
+        <v>242354.1251445666</v>
       </c>
       <c r="N6" t="n">
-        <v>394577.5204219369</v>
+        <v>394554.2960825543</v>
       </c>
       <c r="O6" t="n">
-        <v>394577.5204219369</v>
+        <v>394554.2960825543</v>
       </c>
       <c r="P6" t="n">
-        <v>394577.5204219369</v>
+        <v>394554.2960825544</v>
       </c>
     </row>
   </sheetData>
@@ -26718,13 +26718,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684639</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483596</v>
+        <v>206.10897484836</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939305</v>
+        <v>37.11037423939257</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483596</v>
+        <v>206.10897484836</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939305</v>
+        <v>37.11037423939257</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483596</v>
+        <v>206.10897484836</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939305</v>
+        <v>37.11037423939257</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>339.4121877081939</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>14.40980989651638</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>151.7409492056556</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27593,10 +27593,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>155.6663260148208</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>33.9990799390136</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.00695229329094</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>125.9611629959773</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>367.2261030860411</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
       </c>
-      <c r="X8" t="n">
-        <v>1.12613964253012</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30519,16 +30519,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30662,7 +30662,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>4.622052074410019e-12</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34856,19 +34856,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>296.9562613211783</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
@@ -34877,7 +34877,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.8058955861128</v>
       </c>
       <c r="M5" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368464</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="P5" t="n">
-        <v>624.8248713018638</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35017,16 +35017,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741799</v>
       </c>
       <c r="M6" t="n">
-        <v>30.91440664741867</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>630.4048323684639</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045987015</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238416</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>200.8936957823703</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35649,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>807.531271522046</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>60.59188538505214</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>46.07100690393293</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36123,22 +36123,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>507.1059092967429</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>183.4781570095934</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>127.53932913075</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36609,16 +36609,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>986.1859873202727</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37478,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37554,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>282.6337518573318</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>164.427348413367</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821584</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>507.1059092967421</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>301.5463146682411</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
